--- a/output/acción verapaz.xlsx
+++ b/output/acción verapaz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -810,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ117"/>
+  <dimension ref="A1:AM117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,7 +828,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,10 +937,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1030,15 +1048,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>20249</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1137,15 +1164,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>3021</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1244,15 +1280,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>11000</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1351,15 +1396,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>9920</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1458,15 +1512,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>12000</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1565,15 +1628,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1672,15 +1744,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1779,15 +1860,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1886,15 +1976,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>8061</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1993,15 +2092,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>22416</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2100,15 +2208,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>6250</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2207,15 +2324,24 @@
         <v>0.7763886162404428</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2314,15 +2440,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>2870</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2421,15 +2556,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>2420</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2528,15 +2672,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>2336</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2635,15 +2788,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>3750</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2742,15 +2904,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>8540</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2849,15 +3020,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>5400</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2956,15 +3136,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>14686</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3063,15 +3252,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>3152</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3170,15 +3368,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>12965</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3277,15 +3484,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>12500</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3384,15 +3600,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>10015</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3491,15 +3716,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>33178</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3598,15 +3832,24 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>2377</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3705,15 +3948,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3812,15 +4064,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>21120</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3919,15 +4180,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>4500</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4026,15 +4296,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>35000</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4133,15 +4412,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4240,15 +4528,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>38441</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4347,15 +4644,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>14450</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4454,15 +4760,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>277240</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4561,15 +4876,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>20639</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4668,15 +4992,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>12278</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4775,15 +5108,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>3000</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4882,15 +5224,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>3309745</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4989,15 +5340,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>4000</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5096,15 +5456,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>15792</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5203,15 +5572,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>17135</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5310,15 +5688,24 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>46188</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5417,15 +5804,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>3530.5</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5524,15 +5920,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5631,15 +6036,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>7517</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5738,15 +6152,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>5485.5</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -5845,15 +6268,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>6636.5</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5952,15 +6384,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>1893.5</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6059,15 +6500,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>1823.5</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6166,15 +6616,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>10098</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6273,15 +6732,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>14948</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6380,15 +6848,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>94820</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6487,15 +6964,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>12424</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6594,15 +7080,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>1241</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6701,15 +7196,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>3731.5</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6808,15 +7312,24 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>1326.5</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6915,15 +7428,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>3530.5</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7022,15 +7544,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7129,15 +7660,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>7517</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7236,15 +7776,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>5485.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7343,15 +7892,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>6636.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7450,15 +8008,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>1893.5</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7557,15 +8124,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>1823.5</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7664,15 +8240,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>10098</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7771,15 +8356,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>14948</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7878,15 +8472,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>94820</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7985,15 +8588,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>12424</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8092,15 +8704,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>1241</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8199,15 +8820,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>3731.5</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8306,15 +8936,24 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>1326.5</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8413,15 +9052,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>750</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8520,15 +9168,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>23726</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8627,15 +9284,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>5300</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8734,15 +9400,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>1682.5</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8841,15 +9516,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>2925</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8948,15 +9632,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9055,15 +9748,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>2425</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9162,15 +9864,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>6495</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9269,15 +9980,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>20982.5</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9376,15 +10096,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>86871.815</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -9483,15 +10212,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>31951.5</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -9590,15 +10328,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9697,15 +10444,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>5000</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9804,15 +10560,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>11385.5</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9911,15 +10676,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>2010.5</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10018,15 +10792,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>750</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10125,15 +10908,24 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>6180</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10232,15 +11024,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>750</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10339,15 +11140,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>1</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>23726</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10446,15 +11256,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>5300</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10553,15 +11372,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>1682.5</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10660,15 +11488,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>2925</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10767,15 +11604,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>1500</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -10874,15 +11720,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>1</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>2425</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -10981,15 +11836,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>6495</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11088,15 +11952,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>1</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>20982.5</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11195,15 +12068,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>86871.815</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11302,15 +12184,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>31951.5</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11409,15 +12300,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11516,15 +12416,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11623,15 +12532,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>1</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>11385.5</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11730,15 +12648,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>1</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>2010.5</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -11837,15 +12764,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>750</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -11944,15 +12880,24 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>6180</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -12051,15 +12996,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>18195</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12158,15 +13112,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>26000</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12265,15 +13228,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>7864</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12372,15 +13344,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>1</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>37479</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12479,15 +13460,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>1</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>21830</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12586,15 +13576,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>1</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>24540</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -12693,15 +13692,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>141948</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12800,15 +13808,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>1387</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -12907,15 +13924,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>4500</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13014,15 +14040,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>1</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>5412</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13121,15 +14156,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>4000</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13228,15 +14272,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>1</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>8700</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13335,9 +14388,18 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1995</v>
       </c>
       <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>2335</v>
       </c>
     </row>

--- a/output/acción verapaz.xlsx
+++ b/output/acción verapaz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -819,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM117"/>
+  <dimension ref="A1:AO117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,7 +834,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,10 +952,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1006,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -1042,30 +1054,36 @@
         <v>4093293</v>
       </c>
       <c r="AG2">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH2">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI2">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ2">
         <v>1995</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>20249</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1122,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -1158,30 +1176,36 @@
         <v>2565774</v>
       </c>
       <c r="AG3">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH3">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI3">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ3">
         <v>1995</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>3021</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1238,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1274,30 +1298,36 @@
         <v>2061461</v>
       </c>
       <c r="AG4">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH4">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI4">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ4">
         <v>1995</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>11000</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1354,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -1390,30 +1420,36 @@
         <v>3881838</v>
       </c>
       <c r="AG5">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH5">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI5">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ5">
         <v>1995</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>9920</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1470,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -1506,30 +1542,36 @@
         <v>4231773</v>
       </c>
       <c r="AG6">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH6">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI6">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ6">
         <v>1995</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>12000</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1586,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -1622,30 +1664,36 @@
         <v>1570343</v>
       </c>
       <c r="AG7">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH7">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI7">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ7">
         <v>1995</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1702,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -1738,30 +1786,36 @@
         <v>4266738</v>
       </c>
       <c r="AG8">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH8">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI8">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ8">
         <v>1995</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1818,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -1854,30 +1908,36 @@
         <v>2282830</v>
       </c>
       <c r="AG9">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH9">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI9">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ9">
         <v>1995</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1934,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -1970,30 +2030,36 @@
         <v>5201043</v>
       </c>
       <c r="AG10">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH10">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI10">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ10">
         <v>1995</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>8061</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2050,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -2086,30 +2152,36 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH11">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI11">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ11">
         <v>1995</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>22416</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2166,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -2202,30 +2274,36 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH12">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI12">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ12">
         <v>1995</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>6250</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2282,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>304533</v>
+        <v>285340</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2318,30 +2396,36 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>392243</v>
+        <v>373050</v>
       </c>
       <c r="AH13">
-        <v>0.7763886162404428</v>
+        <v>0.7648840637984184</v>
       </c>
       <c r="AI13">
+        <v>0.09918241522584104</v>
+      </c>
+      <c r="AJ13">
         <v>1995</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2440,24 +2524,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>1995</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>2870</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2556,24 +2646,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>1995</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>2420</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2672,24 +2768,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>1995</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>2336</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2788,24 +2890,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>1995</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>3750</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2904,24 +3012,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>1995</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>8540</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3020,24 +3134,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>1995</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>5400</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3136,24 +3256,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>1995</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>14686</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3252,24 +3378,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>1995</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>3152</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3368,24 +3500,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>1995</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>12965</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3484,24 +3622,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>1995</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>12500</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3600,24 +3744,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>1995</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>10015</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3716,24 +3866,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>1995</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>33178</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3832,24 +3988,30 @@
         <v>0.8633476582332159</v>
       </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>1995</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>2377</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3948,24 +4110,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>1995</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4064,24 +4232,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>1995</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>21120</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4180,24 +4354,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>1995</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>4500</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4296,24 +4476,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
         <v>1995</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>35000</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4412,24 +4598,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>1995</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4528,24 +4720,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
         <v>1995</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>38441</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4644,24 +4842,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>1995</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>14450</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4760,24 +4964,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>1995</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>277240</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4876,24 +5086,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1995</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>20639</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4992,24 +5208,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
         <v>1995</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>12278</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5108,24 +5330,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>1995</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>3000</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5224,24 +5452,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
         <v>1995</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>3309745</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5340,24 +5574,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
         <v>1995</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>4000</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5456,24 +5696,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
         <v>1995</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>15792</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5572,24 +5818,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1995</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>17135</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5688,24 +5940,30 @@
         <v>0.7731954761451493</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1995</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>46188</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5804,24 +6062,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1995</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>3530.5</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5920,24 +6184,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1995</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6036,24 +6306,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1995</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>7517</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6152,24 +6428,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
         <v>1995</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>5485.5</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6268,24 +6550,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>1995</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>6636.5</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6384,24 +6672,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>1995</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>1893.5</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6500,24 +6794,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>1995</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>1823.5</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6616,24 +6916,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
         <v>1995</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>10098</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6732,24 +7038,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
         <v>1995</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>14948</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6848,24 +7160,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>1995</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>94820</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6964,24 +7282,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
         <v>1995</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>12424</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7080,24 +7404,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <v>1995</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>1241</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7196,24 +7526,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
         <v>1995</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>3731.5</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7312,24 +7648,30 @@
         <v>0.9021349445510414</v>
       </c>
       <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
         <v>1995</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>1326.5</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7428,24 +7770,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
         <v>1995</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>3530.5</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7544,24 +7892,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
         <v>1995</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7660,24 +8014,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
         <v>1995</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>7517</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7776,24 +8136,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
         <v>1995</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>5485.5</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7892,24 +8258,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
         <v>1995</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>6636.5</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8008,24 +8380,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
         <v>1995</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>1893.5</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8124,24 +8502,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
         <v>1995</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>1823.5</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8240,24 +8624,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
         <v>1995</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>10098</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8356,24 +8746,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
         <v>1995</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>1</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>14948</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8472,24 +8868,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
         <v>1995</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>94820</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8588,24 +8990,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
         <v>1995</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>12424</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8704,24 +9112,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
         <v>1995</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>1241</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8820,24 +9234,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
         <v>1995</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>3731.5</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8936,24 +9356,30 @@
         <v>0.9639310521025097</v>
       </c>
       <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
         <v>1995</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>1326.5</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -9052,24 +9478,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
         <v>1995</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>750</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9168,24 +9600,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
         <v>1995</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>23726</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9284,24 +9722,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
         <v>1995</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
         <v>0</v>
       </c>
       <c r="AL73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>5300</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9400,24 +9844,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
         <v>1995</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>1682.5</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9516,24 +9966,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
         <v>1995</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75">
         <v>1</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>2925</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9632,24 +10088,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
         <v>1995</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9748,24 +10210,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>1995</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>2425</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9864,24 +10332,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
         <v>1995</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78">
         <v>1</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>6495</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9980,24 +10454,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
         <v>1995</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79">
         <v>1</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>20982.5</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -10096,24 +10576,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
         <v>1995</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>86871.815</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10212,24 +10698,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
         <v>1995</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>31951.5</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -10328,24 +10820,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
         <v>1995</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
         <v>0</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10444,24 +10942,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
         <v>1995</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>5000</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10560,24 +11064,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
         <v>1995</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>1</v>
       </c>
       <c r="AM84">
+        <v>1</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>11385.5</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10676,24 +11186,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
         <v>1995</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85">
         <v>1</v>
       </c>
       <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>2010.5</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10792,24 +11308,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
         <v>1995</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86">
         <v>1</v>
       </c>
       <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>750</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10908,24 +11430,30 @@
         <v>0.7468241365879218</v>
       </c>
       <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
         <v>1995</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>6180</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -11024,24 +11552,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
         <v>1995</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>750</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11140,24 +11674,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
         <v>1995</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89">
         <v>1</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>23726</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11256,24 +11796,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
         <v>1995</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
         <v>0</v>
       </c>
       <c r="AL90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>5300</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11372,24 +11918,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
         <v>1995</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>1682.5</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11488,24 +12040,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
         <v>1995</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92">
         <v>1</v>
       </c>
       <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>2925</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11604,24 +12162,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
         <v>1995</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
         <v>0</v>
       </c>
       <c r="AL93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>1500</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11720,24 +12284,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
         <v>1995</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94">
         <v>1</v>
       </c>
       <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>2425</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11836,24 +12406,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
         <v>1995</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95">
         <v>1</v>
       </c>
       <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>6495</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11952,24 +12528,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
         <v>1995</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96">
         <v>1</v>
       </c>
       <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>20982.5</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12068,24 +12650,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
         <v>1995</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
         <v>0</v>
       </c>
       <c r="AL97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>86871.815</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12184,24 +12772,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
         <v>1995</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
         <v>0</v>
       </c>
       <c r="AL98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>31951.5</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12300,24 +12894,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
         <v>1995</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
         <v>0</v>
       </c>
       <c r="AL99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12416,24 +13016,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
         <v>1995</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
       <c r="AK100">
         <v>0</v>
       </c>
       <c r="AL100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12532,24 +13138,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
         <v>1995</v>
       </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
       <c r="AK101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL101">
         <v>1</v>
       </c>
       <c r="AM101">
+        <v>1</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>11385.5</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12648,24 +13260,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
         <v>1995</v>
       </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
       <c r="AK102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102">
         <v>1</v>
       </c>
       <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>2010.5</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12764,24 +13382,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
         <v>1995</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
       <c r="AK103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL103">
         <v>1</v>
       </c>
       <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>750</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12880,24 +13504,30 @@
         <v>0.9233128276911589</v>
       </c>
       <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
         <v>1995</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
       <c r="AK104">
         <v>0</v>
       </c>
       <c r="AL104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104">
+        <v>1</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>6180</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -12996,24 +13626,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
         <v>1995</v>
       </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
       <c r="AK105">
         <v>0</v>
       </c>
       <c r="AL105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>18195</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -13112,24 +13748,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
         <v>1995</v>
       </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
       <c r="AK106">
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>26000</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -13228,24 +13870,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
         <v>1995</v>
       </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
       <c r="AK107">
         <v>0</v>
       </c>
       <c r="AL107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>7864</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13344,24 +13992,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
         <v>1995</v>
       </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
       <c r="AK108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
       <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>37479</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13460,24 +14114,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
         <v>1995</v>
       </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
       <c r="AK109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109">
         <v>1</v>
       </c>
       <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>21830</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13576,24 +14236,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
         <v>1995</v>
       </c>
-      <c r="AJ110">
-        <v>0</v>
-      </c>
       <c r="AK110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110">
         <v>1</v>
       </c>
       <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>24540</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -13692,24 +14358,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
         <v>1995</v>
       </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
       <c r="AK111">
         <v>0</v>
       </c>
       <c r="AL111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>141948</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13808,24 +14480,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
         <v>1995</v>
       </c>
-      <c r="AJ112">
-        <v>0</v>
-      </c>
       <c r="AK112">
         <v>0</v>
       </c>
       <c r="AL112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>1387</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -13924,24 +14602,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
         <v>1995</v>
       </c>
-      <c r="AJ113">
-        <v>0</v>
-      </c>
       <c r="AK113">
         <v>0</v>
       </c>
       <c r="AL113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>4500</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -14040,24 +14724,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
         <v>1995</v>
       </c>
-      <c r="AJ114">
-        <v>0</v>
-      </c>
       <c r="AK114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL114">
         <v>1</v>
       </c>
       <c r="AM114">
+        <v>1</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>5412</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -14156,24 +14846,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
         <v>1995</v>
       </c>
-      <c r="AJ115">
-        <v>0</v>
-      </c>
       <c r="AK115">
         <v>0</v>
       </c>
       <c r="AL115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
         <v>4000</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -14272,24 +14968,30 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
         <v>1995</v>
       </c>
-      <c r="AJ116">
-        <v>0</v>
-      </c>
       <c r="AK116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL116">
         <v>1</v>
       </c>
       <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>1</v>
+      </c>
+      <c r="AO116">
         <v>8700</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -14388,18 +15090,24 @@
         <v>0.9777125692485347</v>
       </c>
       <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
         <v>1995</v>
       </c>
-      <c r="AJ117">
-        <v>0</v>
-      </c>
       <c r="AK117">
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
         <v>2335</v>
       </c>
     </row>

--- a/output/acción verapaz.xlsx
+++ b/output/acción verapaz.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>680</v>
+        <v>697.6889104500298</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10380</v>
+        <v>14239.03920301361</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1010</v>
+        <v>993.3829437244538</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4140</v>
+        <v>4744.762791189912</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2120</v>
+        <v>2812.435974421079</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>790</v>
+        <v>1036.533951644687</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>350</v>
+        <v>473.2998774917226</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10750</v>
+        <v>12808.034586422</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11810</v>
+        <v>13825.35808833117</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>4580</v>
+        <v>5076.340174387075</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1350</v>
+        <v>1303.425880277445</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>800</v>
+        <v>1037.747039954749</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>8000</v>
+        <v>8390.479071096475</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>35690</v>
+        <v>33888.49231534224</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1090</v>
+        <v>992.8781394745556</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>5520</v>
+        <v>5437.877690816224</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>5930</v>
+        <v>5325.160106166602</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>380</v>
+        <v>495.763971160512</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6457,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>820</v>
+        <v>1057.667740311969</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6579,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>670</v>
+        <v>683.460336640684</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6701,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>650</v>
+        <v>692.4450379203138</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM52">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM56">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>5720</v>
+        <v>5558.73713990153</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>6770</v>
+        <v>5710.587873377512</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>400</v>
+        <v>503.3023574516347</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>890</v>
+        <v>1102.527430026863</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>700</v>
+        <v>698.3833464078615</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8409,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>690</v>
+        <v>711.0361291687414</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM66">
         <v>0</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM70">
         <v>0</v>
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>930</v>
+        <v>1140.447753778042</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>7500</v>
+        <v>6103.590270484282</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -9995,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10483,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM80">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>1230</v>
+        <v>1257.483615623398</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11337,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM87">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>860</v>
+        <v>1128.996380299766</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>7910</v>
+        <v>6500.281937297324</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="AL97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM97">
         <v>0</v>
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>1200</v>
+        <v>1335.203871985052</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -12923,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13167,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="AL104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM104">
         <v>1</v>
@@ -13533,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="C105">
-        <v>820</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13655,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13777,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>1820</v>
+        <v>2854.757682901436</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -13899,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14021,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14143,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="AL111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM111">
         <v>0</v>
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14509,7 +14509,7 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>1200</v>
+        <v>1402.276549638797</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14631,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>1420</v>
+        <v>1117.517554619445</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -14875,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -14997,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>18890</v>
+        <v>22666.28622740736</v>
       </c>
       <c r="D117">
         <v>0</v>

--- a/output/acción verapaz.xlsx
+++ b/output/acción verapaz.xlsx
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>3530.5</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>7517</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>5485.5</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>6636.5</v>
+        <v>4500</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1893.5</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1823.5</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>10098</v>
+        <v>38441</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>14948</v>
+        <v>14450</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>94820</v>
+        <v>277240</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>12424</v>
+        <v>20639</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1241</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>3731.5</v>
+        <v>15792</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9269,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1326.5</v>
+        <v>12278</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -11456,7 +11456,7 @@
         <v>127</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>1128.996380299766</v>
@@ -11465,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>750</v>
+        <v>6636.5</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>23726</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>1682.5</v>
+        <v>3000</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -12197,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -12319,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>6495</v>
+        <v>10098</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>20982.5</v>
+        <v>14948</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -12554,7 +12554,7 @@
         <v>136</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>729.1196658666737</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>86871.815</v>
+        <v>94820</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -12676,7 +12676,7 @@
         <v>137</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>579.0880693780265</v>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>31951.5</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -12798,7 +12798,7 @@
         <v>138</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>1335.203871985052</v>
@@ -12807,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -12920,7 +12920,7 @@
         <v>139</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>731.9993357350996</v>
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>11385.5</v>
+        <v>12424</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>2010.5</v>
+        <v>1241</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>750</v>
+        <v>3731.5</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>6180</v>
+        <v>1326.5</v>
       </c>
       <c r="F104">
         <v>0</v>
